--- a/Sprint3/doc/Change_log_Sprint3.xlsx
+++ b/Sprint3/doc/Change_log_Sprint3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179270B9-84D9-4C9E-97D2-A5EB1606E1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3195C4AF-6048-405D-835D-464496CAE10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>วันที่</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>แก้ไขไฟล์ Sprint1 Sprint2 Sprin3</t>
+  </si>
+  <si>
+    <t>เพิ่ม Document sprint3</t>
+  </si>
+  <si>
+    <t>Akarapong</t>
+  </si>
+  <si>
+    <t>แก้ไขDocument sprint2</t>
+  </si>
+  <si>
+    <t>Parama</t>
+  </si>
+  <si>
+    <t>เพิ่ม Adapt-Blueprint ใน Document sprint3</t>
   </si>
 </sst>
 </file>
@@ -68,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -80,6 +95,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,7 +261,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Change_log" displayName="Change_log" ref="A3:D10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Change_log" displayName="Change_log" ref="A3:D11">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="วันที่"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Change Log"/>
@@ -455,7 +476,7 @@
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -544,27 +565,51 @@
     </row>
     <row r="9" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.35"/>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B4:B11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"add,update"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A4:A10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A4:A11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A4))), AND(ISNUMBER(A4), LEFT(CELL("format", A4))="D"))</formula1>
     </dataValidation>
   </dataValidations>
